--- a/dataDictionary/Genome_file_paths_types.xlsx
+++ b/dataDictionary/Genome_file_paths_types.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C51623-0B0A-4041-B557-F1D6CEE211AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Table</t>
   </si>
@@ -56,15 +51,6 @@
     <t>Participant Identifier (supplied by Genomics England)</t>
   </si>
   <si>
-    <t>lab_sample_id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>The 2D barcode from the FluidX tube used for dispatch from the Laboratory to the GEL Biorepository. This identifier must be unique.   </t>
-  </si>
-  <si>
     <t>platekey</t>
   </si>
   <si>
@@ -101,9 +87,6 @@
     <t>Programme under which participant is recruited under</t>
   </si>
   <si>
-    <t>file_path</t>
-  </si>
-  <si>
     <t>Full file path to given file on storage</t>
   </si>
   <si>
@@ -119,22 +102,31 @@
     <t>File sub-category based upon Illumina output</t>
   </si>
   <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>File category based upon Illumina output</t>
-  </si>
-  <si>
     <t>delivery_version</t>
   </si>
   <si>
     <t>newly added field</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>associated_interpretation_request_id</t>
+  </si>
+  <si>
+    <t>software_version</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -247,12 +239,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -271,6 +274,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -334,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -386,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -587,20 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -628,11 +635,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -642,144 +649,168 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="124" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -788,18 +819,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,14 +998,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7805A4CF-F131-4F92-AC65-DB28450CC651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE7A503-18AB-4549-8738-571106363EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -986,6 +1009,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7805A4CF-F131-4F92-AC65-DB28450CC651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
